--- a/Data_frame/balancos_definitivos/KROT4.xlsx
+++ b/Data_frame/balancos_definitivos/KROT4.xlsx
@@ -894,10 +894,10 @@
         <v>29628229.632</v>
       </c>
       <c r="AY2" t="n">
-        <v>189812.992</v>
+        <v>28898619.392</v>
       </c>
       <c r="AZ2" t="n">
-        <v>189948</v>
+        <v>28512851.968</v>
       </c>
       <c r="BA2" t="n">
         <v>28459075.584</v>
@@ -1081,10 +1081,10 @@
         <v>8303009.792</v>
       </c>
       <c r="AY3" t="n">
-        <v>67</v>
+        <v>7843675.136</v>
       </c>
       <c r="AZ3" t="n">
-        <v>66</v>
+        <v>6967942.144</v>
       </c>
       <c r="BA3" t="n">
         <v>6934237.184</v>
@@ -1268,10 +1268,10 @@
         <v>1205160.96</v>
       </c>
       <c r="AY4" t="n">
-        <v>1</v>
+        <v>1133246.976</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0</v>
+        <v>1601468.032</v>
       </c>
       <c r="BA4" t="n">
         <v>1514830.976</v>
@@ -1455,10 +1455,10 @@
         <v>2193742.08</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>2035003.008</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
+        <v>2425200.896</v>
       </c>
       <c r="BA5" t="n">
         <v>2322981.888</v>
@@ -1642,10 +1642,10 @@
         <v>1706596.992</v>
       </c>
       <c r="AY6" t="n">
-        <v>66</v>
+        <v>1640957.056</v>
       </c>
       <c r="AZ6" t="n">
-        <v>66</v>
+        <v>2025688.96</v>
       </c>
       <c r="BA6" t="n">
         <v>2054470.016</v>
@@ -1829,10 +1829,10 @@
         <v>448855.008</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>425951.008</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>366280</v>
       </c>
       <c r="BA7" t="n">
         <v>362252</v>
@@ -2203,10 +2203,10 @@
         <v>255956.992</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>275577.984</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>213858</v>
       </c>
       <c r="BA9" t="n">
         <v>239122</v>
@@ -2577,10 +2577,10 @@
         <v>2492698.112</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>2332939.008</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>335446.016</v>
       </c>
       <c r="BA11" t="n">
         <v>440580</v>
@@ -2764,10 +2764,10 @@
         <v>2058034.048</v>
       </c>
       <c r="AY12" t="n">
-        <v>109161</v>
+        <v>2041001.984</v>
       </c>
       <c r="AZ12" t="n">
-        <v>109296</v>
+        <v>1766494.976</v>
       </c>
       <c r="BA12" t="n">
         <v>1695787.008</v>
@@ -3325,10 +3325,10 @@
         <v>13650</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>13817</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0</v>
+        <v>14237</v>
       </c>
       <c r="BA15" t="n">
         <v>9867</v>
@@ -3512,10 +3512,10 @@
         <v>397164.992</v>
       </c>
       <c r="AY16" t="n">
-        <v>48963</v>
+        <v>335862.016</v>
       </c>
       <c r="AZ16" t="n">
-        <v>109296</v>
+        <v>251587.008</v>
       </c>
       <c r="BA16" t="n">
         <v>210719.008</v>
@@ -4073,10 +4073,10 @@
         <v>863819.008</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
+        <v>915507.008</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0</v>
+        <v>904160</v>
       </c>
       <c r="BA19" t="n">
         <v>950958.0159999999</v>
@@ -4447,7 +4447,7 @@
         <v>291022.016</v>
       </c>
       <c r="AY21" t="n">
-        <v>60198</v>
+        <v>281129.984</v>
       </c>
       <c r="AZ21" t="n">
         <v>0</v>
@@ -4634,10 +4634,10 @@
         <v>1700</v>
       </c>
       <c r="AY22" t="n">
-        <v>80585</v>
+        <v>953</v>
       </c>
       <c r="AZ22" t="n">
-        <v>80586</v>
+        <v>1211</v>
       </c>
       <c r="BA22" t="n">
         <v>1331</v>
@@ -4821,10 +4821,10 @@
         <v>4332780.032</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
+        <v>4146097.92</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0</v>
+        <v>4201251.072</v>
       </c>
       <c r="BA23" t="n">
         <v>4292850.944</v>
@@ -5008,10 +5008,10 @@
         <v>14932706.304</v>
       </c>
       <c r="AY24" t="n">
-        <v>0</v>
+        <v>14866892.8</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>15575954.432</v>
       </c>
       <c r="BA24" t="n">
         <v>15534870.528</v>
@@ -5382,10 +5382,10 @@
         <v>29628229.632</v>
       </c>
       <c r="AY26" t="n">
-        <v>189812.992</v>
+        <v>28898619.392</v>
       </c>
       <c r="AZ26" t="n">
-        <v>189948</v>
+        <v>28512851.968</v>
       </c>
       <c r="BA26" t="n">
         <v>28459075.584</v>
@@ -5569,10 +5569,10 @@
         <v>4388835.84</v>
       </c>
       <c r="AY27" t="n">
-        <v>24366</v>
+        <v>5095707.136</v>
       </c>
       <c r="AZ27" t="n">
-        <v>34571</v>
+        <v>4087998.976</v>
       </c>
       <c r="BA27" t="n">
         <v>4095549.952</v>
@@ -5756,10 +5756,10 @@
         <v>361428</v>
       </c>
       <c r="AY28" t="n">
-        <v>350</v>
+        <v>412902.016</v>
       </c>
       <c r="AZ28" t="n">
-        <v>350</v>
+        <v>387081.984</v>
       </c>
       <c r="BA28" t="n">
         <v>426420</v>
@@ -5943,10 +5943,10 @@
         <v>703009.024</v>
       </c>
       <c r="AY29" t="n">
-        <v>1349</v>
+        <v>710553.9840000001</v>
       </c>
       <c r="AZ29" t="n">
-        <v>2089</v>
+        <v>964220.992</v>
       </c>
       <c r="BA29" t="n">
         <v>888014.976</v>
@@ -6130,10 +6130,10 @@
         <v>119250</v>
       </c>
       <c r="AY30" t="n">
-        <v>15198</v>
+        <v>136514</v>
       </c>
       <c r="AZ30" t="n">
-        <v>25384</v>
+        <v>143668.992</v>
       </c>
       <c r="BA30" t="n">
         <v>175646</v>
@@ -6317,10 +6317,10 @@
         <v>1482759.936</v>
       </c>
       <c r="AY31" t="n">
-        <v>6748</v>
+        <v>2126443.008</v>
       </c>
       <c r="AZ31" t="n">
-        <v>6748</v>
+        <v>2258499.072</v>
       </c>
       <c r="BA31" t="n">
         <v>2220687.872</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="AY32" t="n">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="AZ32" t="n">
         <v>0</v>
@@ -6878,10 +6878,10 @@
         <v>318215.008</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
+        <v>290423.008</v>
       </c>
       <c r="AZ34" t="n">
-        <v>0</v>
+        <v>334528</v>
       </c>
       <c r="BA34" t="n">
         <v>384780.992</v>
@@ -7252,7 +7252,7 @@
         <v>1404173.952</v>
       </c>
       <c r="AY36" t="n">
-        <v>0</v>
+        <v>1418871.04</v>
       </c>
       <c r="AZ36" t="n">
         <v>0</v>
@@ -7439,10 +7439,10 @@
         <v>11128101.888</v>
       </c>
       <c r="AY37" t="n">
-        <v>108250</v>
+        <v>10077039.616</v>
       </c>
       <c r="AZ37" t="n">
-        <v>98808</v>
+        <v>10654189.568</v>
       </c>
       <c r="BA37" t="n">
         <v>10599896.064</v>
@@ -7626,10 +7626,10 @@
         <v>8137964.032</v>
       </c>
       <c r="AY38" t="n">
-        <v>0</v>
+        <v>7088996.864</v>
       </c>
       <c r="AZ38" t="n">
-        <v>0</v>
+        <v>7635253.76</v>
       </c>
       <c r="BA38" t="n">
         <v>7626781.184</v>
@@ -8000,10 +8000,10 @@
         <v>198178</v>
       </c>
       <c r="AY40" t="n">
-        <v>0</v>
+        <v>184656</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>271103.008</v>
       </c>
       <c r="BA40" t="n">
         <v>258719.008</v>
@@ -8187,10 +8187,10 @@
         <v>479264</v>
       </c>
       <c r="AY41" t="n">
-        <v>0</v>
+        <v>485479.008</v>
       </c>
       <c r="AZ41" t="n">
-        <v>0</v>
+        <v>669257.9840000001</v>
       </c>
       <c r="BA41" t="n">
         <v>703875.008</v>
@@ -8561,10 +8561,10 @@
         <v>2312696.064</v>
       </c>
       <c r="AY43" t="n">
-        <v>108250</v>
+        <v>2317907.968</v>
       </c>
       <c r="AZ43" t="n">
-        <v>98808</v>
+        <v>2078574.976</v>
       </c>
       <c r="BA43" t="n">
         <v>2010520.96</v>
@@ -9122,10 +9122,10 @@
         <v>1064241.024</v>
       </c>
       <c r="AY46" t="n">
-        <v>0</v>
+        <v>1046888</v>
       </c>
       <c r="AZ46" t="n">
-        <v>0</v>
+        <v>1044073.984</v>
       </c>
       <c r="BA46" t="n">
         <v>1049516.032</v>
@@ -9309,10 +9309,10 @@
         <v>13047051.392</v>
       </c>
       <c r="AY47" t="n">
-        <v>57197</v>
+        <v>12678986.176</v>
       </c>
       <c r="AZ47" t="n">
-        <v>56569</v>
+        <v>12726589.952</v>
       </c>
       <c r="BA47" t="n">
         <v>12714115.072</v>
@@ -9496,10 +9496,10 @@
         <v>7667615.232</v>
       </c>
       <c r="AY48" t="n">
-        <v>171652.992</v>
+        <v>7667615.232</v>
       </c>
       <c r="AZ48" t="n">
-        <v>171652.992</v>
+        <v>7667615.232</v>
       </c>
       <c r="BA48" t="n">
         <v>7667615.232</v>
@@ -9683,10 +9683,10 @@
         <v>5563354.112</v>
       </c>
       <c r="AY49" t="n">
-        <v>374</v>
+        <v>5565511.168</v>
       </c>
       <c r="AZ49" t="n">
-        <v>432</v>
+        <v>5058975.232</v>
       </c>
       <c r="BA49" t="n">
         <v>5059607.04</v>
@@ -10057,10 +10057,10 @@
         <v>-183918</v>
       </c>
       <c r="AY51" t="n">
-        <v>3610</v>
+        <v>0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>3610</v>
+        <v>0</v>
       </c>
       <c r="BA51" t="n">
         <v>0</v>
@@ -10244,10 +10244,10 @@
         <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>-118440</v>
+        <v>-554140.032</v>
       </c>
       <c r="AZ52" t="n">
-        <v>-119126</v>
+        <v>0</v>
       </c>
       <c r="BA52" t="n">
         <v>-13107</v>
@@ -11333,10 +11333,10 @@
         <v>1152558.976</v>
       </c>
       <c r="AY59" t="n">
-        <v>0</v>
+        <v>1497580.288</v>
       </c>
       <c r="AZ59" t="n">
-        <v>0</v>
+        <v>1176647.936</v>
       </c>
       <c r="BA59" t="n">
         <v>1155298.944</v>
@@ -11520,10 +11520,10 @@
         <v>-397055.008</v>
       </c>
       <c r="AY60" t="n">
-        <v>0</v>
+        <v>-621199.936</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0</v>
+        <v>-431537.984</v>
       </c>
       <c r="BA60" t="n">
         <v>-428536</v>
@@ -11707,10 +11707,10 @@
         <v>755504</v>
       </c>
       <c r="AY61" t="n">
-        <v>0</v>
+        <v>876379.968</v>
       </c>
       <c r="AZ61" t="n">
-        <v>0</v>
+        <v>745110.0159999999</v>
       </c>
       <c r="BA61" t="n">
         <v>726763.008</v>
@@ -11894,10 +11894,10 @@
         <v>-110543</v>
       </c>
       <c r="AY62" t="n">
-        <v>0</v>
+        <v>-90452.024</v>
       </c>
       <c r="AZ62" t="n">
-        <v>0</v>
+        <v>-123488</v>
       </c>
       <c r="BA62" t="n">
         <v>-129039</v>
@@ -12081,10 +12081,10 @@
         <v>-426648.992</v>
       </c>
       <c r="AY63" t="n">
-        <v>-183</v>
+        <v>-503431.04</v>
       </c>
       <c r="AZ63" t="n">
-        <v>1032</v>
+        <v>-362376.992</v>
       </c>
       <c r="BA63" t="n">
         <v>-391118.016</v>
@@ -12256,7 +12256,7 @@
         <v>-190155.008</v>
       </c>
       <c r="AY64" t="n">
-        <v>0</v>
+        <v>352606.016</v>
       </c>
       <c r="AZ64" t="n">
         <v>0</v>
@@ -12443,10 +12443,10 @@
         <v>0</v>
       </c>
       <c r="AY65" t="n">
-        <v>0</v>
+        <v>3410</v>
       </c>
       <c r="AZ65" t="n">
-        <v>-135</v>
+        <v>2096</v>
       </c>
       <c r="BA65" t="n">
         <v>5988</v>
@@ -12630,10 +12630,10 @@
         <v>-6029</v>
       </c>
       <c r="AY66" t="n">
-        <v>-1177</v>
+        <v>-537654.0159999999</v>
       </c>
       <c r="AZ66" t="n">
-        <v>-1422</v>
+        <v>-102140</v>
       </c>
       <c r="BA66" t="n">
         <v>-7656</v>
@@ -12817,10 +12817,10 @@
         <v>436</v>
       </c>
       <c r="AY67" t="n">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="AZ67" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="BA67" t="n">
         <v>576</v>
@@ -13004,10 +13004,10 @@
         <v>-152667.008</v>
       </c>
       <c r="AY68" t="n">
-        <v>-117</v>
+        <v>-155336.032</v>
       </c>
       <c r="AZ68" t="n">
-        <v>-160</v>
+        <v>-191120.992</v>
       </c>
       <c r="BA68" t="n">
         <v>-229899.008</v>
@@ -13191,10 +13191,10 @@
         <v>60291</v>
       </c>
       <c r="AY69" t="n">
-        <v>0</v>
+        <v>92094.984</v>
       </c>
       <c r="AZ69" t="n">
-        <v>0</v>
+        <v>150564.992</v>
       </c>
       <c r="BA69" t="n">
         <v>141460.992</v>
@@ -13378,10 +13378,10 @@
         <v>-212958</v>
       </c>
       <c r="AY70" t="n">
-        <v>-117</v>
+        <v>-247431.024</v>
       </c>
       <c r="AZ70" t="n">
-        <v>-160</v>
+        <v>-341686.016</v>
       </c>
       <c r="BA70" t="n">
         <v>-371360</v>
@@ -13796,10 +13796,10 @@
         <v>-130103</v>
       </c>
       <c r="AY74" t="n">
-        <v>-1477</v>
+        <v>-54219</v>
       </c>
       <c r="AZ74" t="n">
-        <v>-685</v>
+        <v>-31346</v>
       </c>
       <c r="BA74" t="n">
         <v>-143016</v>
@@ -13983,10 +13983,10 @@
         <v>26706</v>
       </c>
       <c r="AY75" t="n">
-        <v>0</v>
+        <v>4864</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0</v>
+        <v>10976</v>
       </c>
       <c r="BA75" t="n">
         <v>-9792</v>
@@ -14170,10 +14170,10 @@
         <v>21089</v>
       </c>
       <c r="AY76" t="n">
-        <v>0</v>
+        <v>-53959</v>
       </c>
       <c r="AZ76" t="n">
-        <v>0</v>
+        <v>11781</v>
       </c>
       <c r="BA76" t="n">
         <v>35137</v>
@@ -14511,10 +14511,10 @@
         <v>13666</v>
       </c>
       <c r="AY79" t="n">
-        <v>0</v>
+        <v>-5318</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0</v>
+        <v>-4518</v>
       </c>
       <c r="BA79" t="n">
         <v>16708</v>
@@ -14698,10 +14698,10 @@
         <v>-92943</v>
       </c>
       <c r="AY80" t="n">
-        <v>-1477</v>
+        <v>65015.024</v>
       </c>
       <c r="AZ80" t="n">
-        <v>-685</v>
+        <v>-13107</v>
       </c>
       <c r="BA80" t="n">
         <v>-100963</v>
